--- a/Analysis/wager_digit_span_log.xlsx
+++ b/Analysis/wager_digit_span_log.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a77ded506e32178a/Tartu Ülikool/AI and NI/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BBA25B6-7975-41A0-A9D7-11C942288B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{9BBA25B6-7975-41A0-A9D7-11C942288B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB8FE500-92B5-47AB-BF76-81C1CA74C263}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gregor_digit_span_log" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="28">
   <si>
     <t>user_name</t>
   </si>
@@ -88,9 +88,6 @@
     <t>feedback</t>
   </si>
   <si>
-    <t>Gregor</t>
-  </si>
-  <si>
     <t>correct</t>
   </si>
   <si>
@@ -106,13 +103,13 @@
     <t>quit</t>
   </si>
   <si>
-    <t>gregor</t>
+    <t>wager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -966,12 +963,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1069,7 +1064,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>45253</v>
@@ -1090,7 +1085,7 @@
         <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1134,7 +1129,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>45253</v>
@@ -1155,7 +1150,7 @@
         <v>8349</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1199,7 +1194,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>45253</v>
@@ -1220,7 +1215,7 @@
         <v>7125</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1264,7 +1259,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
         <v>45253</v>
@@ -1285,7 +1280,7 @@
         <v>64692</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1329,7 +1324,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>45253</v>
@@ -1350,7 +1345,7 @@
         <v>16352</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1394,7 +1389,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
         <v>45253</v>
@@ -1415,7 +1410,7 @@
         <v>794200</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1459,7 +1454,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>45253</v>
@@ -1480,7 +1475,7 @@
         <v>3158017</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1524,7 +1519,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>45253</v>
@@ -1545,7 +1540,7 @@
         <v>7929023</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -1589,7 +1584,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>45253</v>
@@ -1610,7 +1605,7 @@
         <v>692914</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -1654,7 +1649,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>45253</v>
@@ -1675,7 +1670,7 @@
         <v>89008</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1719,7 +1714,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>45253</v>
@@ -1740,7 +1735,7 @@
         <v>189990</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1784,7 +1779,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1">
         <v>45253</v>
@@ -1805,7 +1800,7 @@
         <v>3112312</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1849,7 +1844,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
         <v>45253</v>
@@ -1870,7 +1865,7 @@
         <v>2684196</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1914,7 +1909,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1">
         <v>45253</v>
@@ -1935,7 +1930,7 @@
         <v>884092</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -1979,7 +1974,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1">
         <v>45257</v>
@@ -2000,7 +1995,7 @@
         <v>559</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2044,7 +2039,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
         <v>45257</v>
@@ -2065,7 +2060,7 @@
         <v>6294</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2109,7 +2104,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
         <v>45257</v>
@@ -2130,7 +2125,7 @@
         <v>37052</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2174,7 +2169,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1">
         <v>45257</v>
@@ -2195,7 +2190,7 @@
         <v>774563</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2239,7 +2234,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1">
         <v>45257</v>
@@ -2260,7 +2255,7 @@
         <v>9583101</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2304,7 +2299,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1">
         <v>45257</v>
@@ -2325,7 +2320,7 @@
         <v>3557092</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2369,7 +2364,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1">
         <v>45257</v>
@@ -2387,10 +2382,10 @@
         <v>22961547</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2432,12 +2427,12 @@
         <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1">
         <v>45257</v>
@@ -2458,7 +2453,7 @@
         <v>47201004</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2502,7 +2497,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>45258</v>
@@ -2523,7 +2518,7 @@
         <v>71</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2567,7 +2562,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1">
         <v>45258</v>
@@ -2588,7 +2583,7 @@
         <v>485</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2632,7 +2627,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
         <v>45258</v>
@@ -2653,7 +2648,7 @@
         <v>6495</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2697,7 +2692,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>45258</v>
@@ -2718,7 +2713,7 @@
         <v>5355</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2762,7 +2757,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>45258</v>
@@ -2783,7 +2778,7 @@
         <v>314924</v>
       </c>
       <c r="H28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2827,7 +2822,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>45258</v>
@@ -2848,7 +2843,7 @@
         <v>1578251</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2892,7 +2887,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1">
         <v>45258</v>
@@ -2913,7 +2908,7 @@
         <v>2329426</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2957,7 +2952,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1">
         <v>45258</v>
@@ -2978,7 +2973,7 @@
         <v>72854134</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3022,7 +3017,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1">
         <v>45258</v>
@@ -3043,7 +3038,7 @@
         <v>6156931</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -3087,7 +3082,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1">
         <v>45258</v>
@@ -3108,7 +3103,7 @@
         <v>463553843</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -3152,7 +3147,7 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1">
         <v>45258</v>
@@ -3170,10 +3165,10 @@
         <v>84631936</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -3217,7 +3212,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B35" s="1">
         <v>45258</v>
@@ -3235,10 +3230,10 @@
         <v>7426975</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I35">
         <v>4</v>
@@ -3282,7 +3277,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1">
         <v>45263</v>
@@ -3303,7 +3298,7 @@
         <v>50</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3347,7 +3342,7 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="1">
         <v>45263</v>
@@ -3368,7 +3363,7 @@
         <v>1896</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3412,7 +3407,7 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="1">
         <v>45263</v>
@@ -3433,7 +3428,7 @@
         <v>76810</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3477,7 +3472,7 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="1">
         <v>45263</v>
@@ -3498,7 +3493,7 @@
         <v>216779</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3542,7 +3537,7 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" s="1">
         <v>45263</v>
@@ -3563,7 +3558,7 @@
         <v>6159402</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3607,7 +3602,7 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="1">
         <v>45263</v>
@@ -3628,7 +3623,7 @@
         <v>73457657</v>
       </c>
       <c r="H41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3672,7 +3667,7 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" s="1">
         <v>45263</v>
@@ -3693,7 +3688,7 @@
         <v>175462390</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3737,7 +3732,7 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" s="1">
         <v>45263</v>
@@ -3758,7 +3753,7 @@
         <v>1130404243</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3802,7 +3797,7 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44" s="1">
         <v>45263</v>
@@ -3823,7 +3818,7 @@
         <v>87327198816</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3867,7 +3862,7 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" s="1">
         <v>45263</v>
@@ -3888,7 +3883,7 @@
         <v>4993997191269</v>
       </c>
       <c r="H45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -3932,7 +3927,7 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="1">
         <v>45263</v>
@@ -3953,7 +3948,7 @@
         <v>333112453859</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3997,7 +3992,7 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="1">
         <v>45263</v>
@@ -4018,7 +4013,7 @@
         <v>305883641983</v>
       </c>
       <c r="H47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4062,7 +4057,7 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" s="1">
         <v>45263</v>
@@ -4083,7 +4078,7 @@
         <v>5450187100324</v>
       </c>
       <c r="H48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4127,7 +4122,7 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B49" s="1">
         <v>45263</v>
@@ -4148,7 +4143,7 @@
         <v>538</v>
       </c>
       <c r="H49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -4192,7 +4187,7 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B50" s="1">
         <v>45263</v>
@@ -4213,7 +4208,7 @@
         <v>3216</v>
       </c>
       <c r="H50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4257,7 +4252,7 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B51" s="1">
         <v>45263</v>
@@ -4278,7 +4273,7 @@
         <v>27972</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4322,7 +4317,7 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B52" s="1">
         <v>45263</v>
@@ -4343,7 +4338,7 @@
         <v>861260</v>
       </c>
       <c r="H52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -4387,7 +4382,7 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B53" s="1">
         <v>45263</v>
@@ -4408,7 +4403,7 @@
         <v>790910</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -4452,7 +4447,7 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B54" s="1">
         <v>45263</v>
@@ -4473,7 +4468,7 @@
         <v>39543258</v>
       </c>
       <c r="H54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -4517,7 +4512,7 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B55" s="1">
         <v>45263</v>
@@ -4538,7 +4533,7 @@
         <v>798811990</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4582,7 +4577,7 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B56" s="1">
         <v>45263</v>
@@ -4603,7 +4598,7 @@
         <v>4414788929</v>
       </c>
       <c r="H56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4647,7 +4642,7 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B57" s="1">
         <v>45263</v>
@@ -4668,7 +4663,7 @@
         <v>35358579123</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4712,7 +4707,7 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B58" s="1">
         <v>45263</v>
@@ -4733,7 +4728,7 @@
         <v>168188657845</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -4777,7 +4772,7 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B59" s="1">
         <v>45264</v>
@@ -4798,7 +4793,7 @@
         <v>933</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -4842,7 +4837,7 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B60" s="1">
         <v>45264</v>
@@ -4863,7 +4858,7 @@
         <v>3164</v>
       </c>
       <c r="H60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -4907,7 +4902,7 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B61" s="1">
         <v>45264</v>
@@ -4928,7 +4923,7 @@
         <v>76305</v>
       </c>
       <c r="H61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -4972,7 +4967,7 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B62" s="1">
         <v>45264</v>
@@ -4993,7 +4988,7 @@
         <v>6279888</v>
       </c>
       <c r="H62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -5037,7 +5032,7 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B63" s="1">
         <v>45264</v>
@@ -5058,7 +5053,7 @@
         <v>984525</v>
       </c>
       <c r="H63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -5102,7 +5097,7 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B64" s="1">
         <v>45264</v>
@@ -5123,7 +5118,7 @@
         <v>574883</v>
       </c>
       <c r="H64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -5167,7 +5162,7 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B65" s="1">
         <v>45264</v>
@@ -5188,7 +5183,7 @@
         <v>9123220</v>
       </c>
       <c r="H65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -5232,7 +5227,7 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B66" s="1">
         <v>45264</v>
@@ -5253,7 +5248,7 @@
         <v>36278430</v>
       </c>
       <c r="H66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -5297,7 +5292,7 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B67" s="1">
         <v>45264</v>
@@ -5318,7 +5313,7 @@
         <v>5911620</v>
       </c>
       <c r="H67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -5362,7 +5357,7 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B68" s="1">
         <v>45264</v>
@@ -5383,7 +5378,7 @@
         <v>786671799</v>
       </c>
       <c r="H68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -5427,7 +5422,7 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B69" s="1">
         <v>45264</v>
@@ -5448,7 +5443,7 @@
         <v>1974538002</v>
       </c>
       <c r="H69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -5492,7 +5487,7 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B70" s="1">
         <v>45264</v>
@@ -5513,7 +5508,7 @@
         <v>83810041531</v>
       </c>
       <c r="H70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -5557,7 +5552,7 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B71" s="1">
         <v>45264</v>
@@ -5578,7 +5573,7 @@
         <v>80868526944</v>
       </c>
       <c r="H71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -5622,7 +5617,7 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B72" s="1">
         <v>45264</v>
@@ -5643,7 +5638,7 @@
         <v>98389</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -5687,7 +5682,7 @@
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B73" s="1">
         <v>45264</v>
@@ -5708,7 +5703,7 @@
         <v>877448</v>
       </c>
       <c r="H73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -5752,7 +5747,7 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B74" s="1">
         <v>45264</v>
@@ -5773,7 +5768,7 @@
         <v>261265</v>
       </c>
       <c r="H74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -5817,7 +5812,7 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B75" s="1">
         <v>45264</v>
@@ -5838,7 +5833,7 @@
         <v>1997473</v>
       </c>
       <c r="H75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -5882,7 +5877,7 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B76" s="1">
         <v>45264</v>
@@ -5903,7 +5898,7 @@
         <v>71650022</v>
       </c>
       <c r="H76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -5947,7 +5942,7 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B77" s="1">
         <v>45264</v>
@@ -5968,7 +5963,7 @@
         <v>126282373</v>
       </c>
       <c r="H77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -6012,7 +6007,7 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B78" s="1">
         <v>45264</v>
@@ -6033,7 +6028,7 @@
         <v>1902699133</v>
       </c>
       <c r="H78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -6077,7 +6072,7 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B79" s="1">
         <v>45265</v>
@@ -6098,7 +6093,7 @@
         <v>5438</v>
       </c>
       <c r="H79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -6142,7 +6137,7 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B80" s="1">
         <v>45265</v>
@@ -6163,7 +6158,7 @@
         <v>7284</v>
       </c>
       <c r="H80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -6207,7 +6202,7 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B81" s="1">
         <v>45265</v>
@@ -6228,7 +6223,7 @@
         <v>76569</v>
       </c>
       <c r="H81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -6272,7 +6267,7 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B82" s="1">
         <v>45265</v>
@@ -6293,7 +6288,7 @@
         <v>614242</v>
       </c>
       <c r="H82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -6337,7 +6332,7 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B83" s="1">
         <v>45265</v>
@@ -6358,7 +6353,7 @@
         <v>109717</v>
       </c>
       <c r="H83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -6402,7 +6397,7 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B84" s="1">
         <v>45265</v>
@@ -6423,7 +6418,7 @@
         <v>8062700</v>
       </c>
       <c r="H84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -6467,7 +6462,7 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B85" s="1">
         <v>45265</v>
@@ -6488,7 +6483,7 @@
         <v>13842081</v>
       </c>
       <c r="H85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -6532,7 +6527,7 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B86" s="1">
         <v>45265</v>
@@ -6553,7 +6548,7 @@
         <v>999501754</v>
       </c>
       <c r="H86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -6597,7 +6592,7 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B87" s="1">
         <v>45265</v>
@@ -6618,7 +6613,7 @@
         <v>7623149121</v>
       </c>
       <c r="H87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -6662,7 +6657,7 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B88" s="1">
         <v>45265</v>
@@ -6683,7 +6678,7 @@
         <v>86472151305</v>
       </c>
       <c r="H88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I88">
         <v>1</v>
